--- a/biology/Histoire de la zoologie et de la botanique/Johann_Jakob_Kaup/Johann_Jakob_Kaup.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Jakob_Kaup/Johann_Jakob_Kaup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Jakob Kaup est un naturaliste allemand, né selon les sources le 10 ou 20 avril 1803 à Darmstadt et mort le 4 juillet 1873 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Göttingen et à Heidelberg puis s'installe à Leyde. Il étudie particulièrement les amphibiens et les poissons. Il obtient le poste d'assistance du museum du grand-duc à Darmstadt, puis, en 1840, y obtient le poste d'inspecteur.
 En 1829, il publie Skizze zur Entwickelungsgeschichte der europäischen Thierwelt, ouvrage dans lequel il examine le développement du règne animal, des formes dites inférieures aux supérieures, des amphibiens aux rapaces. Plus tard, il a considéré ce livre comme une œuvre de jeunesse. Et à la publication de l’Origin of Species de Charles Darwin, il se déclare hostile à ses hypothèses.
